--- a/edge_data_lsa.xlsx
+++ b/edge_data_lsa.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>732</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>759</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>781</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>728</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>732</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>821</v>
+        <v>916</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>834</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>854</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>267</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>569</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>732</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>759</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>781</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C17">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>732</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C19">
-        <v>759</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>850</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>858</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>732</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>732</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>759</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C31">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>191</v>
+        <v>916</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>759</v>
+        <v>935</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C34">
-        <v>93</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>191</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C36">
-        <v>248</v>
+        <v>916</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C37">
-        <v>267</v>
+        <v>935</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C38">
-        <v>348</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C39">
-        <v>422</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C40">
-        <v>456</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>601</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C42">
-        <v>669</v>
+        <v>884</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C43">
-        <v>732</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C44">
-        <v>759</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C45">
-        <v>781</v>
+        <v>988</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C46">
-        <v>831</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C47">
-        <v>850</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C48">
-        <v>348</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C49">
-        <v>422</v>
+        <v>916</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C50">
-        <v>686</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C51">
-        <v>732</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C52">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C53">
-        <v>850</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C54">
-        <v>191</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C55">
-        <v>267</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C56">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C57">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C58">
-        <v>559</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C59">
-        <v>732</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C60">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C61">
-        <v>781</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C62">
-        <v>850</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C63">
-        <v>234</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C64">
-        <v>759</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C65">
-        <v>781</v>
+        <v>888</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C66">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C67">
-        <v>732</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C68">
-        <v>759</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C69">
-        <v>850</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C70">
-        <v>732</v>
+        <v>888</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C71">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C72">
-        <v>191</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C73">
-        <v>732</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C74">
-        <v>759</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C75">
-        <v>267</v>
+        <v>916</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C76">
-        <v>569</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C77">
-        <v>759</v>
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C78">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C79">
-        <v>732</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C80">
-        <v>759</v>
+        <v>888</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C81">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C82">
-        <v>191</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C83">
-        <v>355</v>
+        <v>916</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C84">
-        <v>732</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C85">
-        <v>759</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C86">
-        <v>850</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C87">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C88">
-        <v>759</v>
+        <v>828</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C89">
-        <v>781</v>
+        <v>898</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C90">
-        <v>348</v>
+        <v>916</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C91">
-        <v>355</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C92">
-        <v>601</v>
+        <v>888</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C93">
-        <v>732</v>
+        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C94">
-        <v>759</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C95">
-        <v>781</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C96">
-        <v>850</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="C97">
-        <v>759</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C98">
-        <v>348</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C99">
-        <v>355</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C100">
-        <v>759</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C101">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102">
-        <v>732</v>
+        <v>828</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C103">
-        <v>759</v>
+        <v>888</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C104">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C105">
-        <v>850</v>
+        <v>935</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C106">
-        <v>759</v>
+        <v>985</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C107">
-        <v>781</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C108">
-        <v>850</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C109">
-        <v>858</v>
+        <v>580</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C110">
-        <v>759</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C111">
-        <v>781</v>
+        <v>888</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C112">
-        <v>420</v>
+        <v>916</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C113">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C114">
-        <v>821</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C115">
-        <v>732</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C116">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="C117">
-        <v>781</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C118">
-        <v>759</v>
+        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C119">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C120">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="C121">
-        <v>355</v>
+        <v>935</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="C122">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="C123">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="C124">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="C125">
-        <v>850</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="C126">
-        <v>732</v>
+        <v>916</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="C127">
-        <v>759</v>
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="C128">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="C129">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="C130">
-        <v>456</v>
+        <v>916</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="C131">
-        <v>732</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="C132">
-        <v>759</v>
+        <v>888</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="C133">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="C134">
-        <v>669</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="C135">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="C136">
-        <v>781</v>
+        <v>888</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="C137">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="C138">
-        <v>781</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="C139">
-        <v>781</v>
+        <v>727</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="C140">
-        <v>732</v>
+        <v>916</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="C141">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="C142">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="C143">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="C144">
-        <v>850</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>417</v>
+        <v>309</v>
       </c>
       <c r="C145">
-        <v>802</v>
+        <v>888</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="C146">
-        <v>809</v>
+        <v>916</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="C147">
-        <v>759</v>
+        <v>935</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="C148">
-        <v>858</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="C149">
-        <v>640</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C150">
-        <v>601</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C151">
-        <v>741</v>
+        <v>888</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C152">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C153">
-        <v>850</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="C154">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="C155">
-        <v>732</v>
+        <v>916</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="C156">
-        <v>759</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="C157">
-        <v>555</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>490</v>
+        <v>383</v>
       </c>
       <c r="C158">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>490</v>
+        <v>384</v>
       </c>
       <c r="C159">
-        <v>781</v>
+        <v>916</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="C160">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>537</v>
+        <v>389</v>
       </c>
       <c r="C161">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>555</v>
+        <v>398</v>
       </c>
       <c r="C162">
-        <v>759</v>
+        <v>916</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>559</v>
+        <v>398</v>
       </c>
       <c r="C163">
-        <v>802</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>569</v>
+        <v>402</v>
       </c>
       <c r="C164">
-        <v>669</v>
+        <v>916</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>569</v>
+        <v>402</v>
       </c>
       <c r="C165">
-        <v>759</v>
+        <v>935</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>569</v>
+        <v>402</v>
       </c>
       <c r="C166">
-        <v>781</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>582</v>
+        <v>402</v>
       </c>
       <c r="C167">
-        <v>669</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>601</v>
+        <v>417</v>
       </c>
       <c r="C168">
-        <v>732</v>
+        <v>916</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>601</v>
+        <v>417</v>
       </c>
       <c r="C169">
-        <v>759</v>
+        <v>935</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>601</v>
+        <v>418</v>
       </c>
       <c r="C170">
-        <v>809</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>601</v>
+        <v>418</v>
       </c>
       <c r="C171">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>640</v>
+        <v>427</v>
       </c>
       <c r="C172">
-        <v>732</v>
+        <v>975</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>640</v>
+        <v>476</v>
       </c>
       <c r="C173">
-        <v>759</v>
+        <v>888</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>640</v>
+        <v>476</v>
       </c>
       <c r="C174">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>657</v>
+        <v>476</v>
       </c>
       <c r="C175">
-        <v>802</v>
+        <v>935</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>657</v>
+        <v>477</v>
       </c>
       <c r="C176">
-        <v>858</v>
+        <v>916</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>669</v>
+        <v>477</v>
       </c>
       <c r="C177">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>669</v>
+        <v>477</v>
       </c>
       <c r="C178">
-        <v>781</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>721</v>
+        <v>501</v>
       </c>
       <c r="C179">
-        <v>757</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>728</v>
+        <v>501</v>
       </c>
       <c r="C180">
-        <v>858</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>728</v>
+        <v>501</v>
       </c>
       <c r="C181">
-        <v>911</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>732</v>
+        <v>502</v>
       </c>
       <c r="C182">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>741</v>
+        <v>502</v>
       </c>
       <c r="C183">
-        <v>759</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>741</v>
+        <v>505</v>
       </c>
       <c r="C184">
-        <v>850</v>
+        <v>888</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>757</v>
+        <v>505</v>
       </c>
       <c r="C185">
-        <v>858</v>
+        <v>916</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>759</v>
+        <v>506</v>
       </c>
       <c r="C186">
-        <v>781</v>
+        <v>916</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>759</v>
+        <v>506</v>
       </c>
       <c r="C187">
-        <v>850</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>759</v>
+        <v>508</v>
       </c>
       <c r="C188">
-        <v>858</v>
+        <v>615</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>763</v>
+        <v>508</v>
       </c>
       <c r="C189">
-        <v>858</v>
+        <v>888</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>781</v>
+        <v>508</v>
       </c>
       <c r="C190">
-        <v>850</v>
+        <v>916</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>901</v>
+        <v>508</v>
       </c>
       <c r="C191">
-        <v>906</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,648 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>901</v>
+        <v>556</v>
       </c>
       <c r="C192">
-        <v>924</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>556</v>
+      </c>
+      <c r="C193">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>556</v>
+      </c>
+      <c r="C194">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>556</v>
+      </c>
+      <c r="C195">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>558</v>
+      </c>
+      <c r="C196">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>559</v>
+      </c>
+      <c r="C197">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>560</v>
+      </c>
+      <c r="C198">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>560</v>
+      </c>
+      <c r="C199">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>560</v>
+      </c>
+      <c r="C200">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>562</v>
+      </c>
+      <c r="C201">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>562</v>
+      </c>
+      <c r="C202">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>575</v>
+      </c>
+      <c r="C203">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>575</v>
+      </c>
+      <c r="C204">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>579</v>
+      </c>
+      <c r="C205">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>579</v>
+      </c>
+      <c r="C206">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>614</v>
+      </c>
+      <c r="C207">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>615</v>
+      </c>
+      <c r="C208">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>615</v>
+      </c>
+      <c r="C209">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>615</v>
+      </c>
+      <c r="C210">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>615</v>
+      </c>
+      <c r="C211">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>621</v>
+      </c>
+      <c r="C212">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>629</v>
+      </c>
+      <c r="C213">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>629</v>
+      </c>
+      <c r="C214">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>649</v>
+      </c>
+      <c r="C215">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>649</v>
+      </c>
+      <c r="C216">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>649</v>
+      </c>
+      <c r="C217">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>675</v>
+      </c>
+      <c r="C218">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>696</v>
+      </c>
+      <c r="C219">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>713</v>
+      </c>
+      <c r="C220">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>717</v>
+      </c>
+      <c r="C221">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>727</v>
+      </c>
+      <c r="C222">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>727</v>
+      </c>
+      <c r="C223">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>727</v>
+      </c>
+      <c r="C224">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>740</v>
+      </c>
+      <c r="C225">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>760</v>
+      </c>
+      <c r="C226">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>760</v>
+      </c>
+      <c r="C227">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>760</v>
+      </c>
+      <c r="C228">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>760</v>
+      </c>
+      <c r="C229">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>799</v>
+      </c>
+      <c r="C230">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>799</v>
+      </c>
+      <c r="C231">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>799</v>
+      </c>
+      <c r="C232">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>816</v>
+      </c>
+      <c r="C233">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>816</v>
+      </c>
+      <c r="C234">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>828</v>
+      </c>
+      <c r="C235">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>828</v>
+      </c>
+      <c r="C236">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>877</v>
+      </c>
+      <c r="C237">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>884</v>
+      </c>
+      <c r="C238">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>884</v>
+      </c>
+      <c r="C239">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>888</v>
+      </c>
+      <c r="C240">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>898</v>
+      </c>
+      <c r="C241">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>898</v>
+      </c>
+      <c r="C242">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>914</v>
+      </c>
+      <c r="C243">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>916</v>
+      </c>
+      <c r="C244">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>916</v>
+      </c>
+      <c r="C245">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>916</v>
+      </c>
+      <c r="C246">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>920</v>
+      </c>
+      <c r="C247">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>935</v>
+      </c>
+      <c r="C248">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1056</v>
+      </c>
+      <c r="C249">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>1056</v>
+      </c>
+      <c r="C250">
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
